--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1864</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1864</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1864</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.009514530499776205</v>
+        <v>1053</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9, 3, 1, 6, 11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 11 -&gt; 1 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01195716857910156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1502</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1502</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1502</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01293629805246989</v>
+        <v>867</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2, 1, 6, 7, 3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01217770576477051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1429</v>
-      </c>
       <c r="C4" t="n">
-        <v>1429</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1429</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01487491130828857</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1743</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01471961339314779</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1542</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1542</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1542</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01458742618560791</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1518</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1518</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1518</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01479992071787516</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1863</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1863</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1863</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01492157777150472</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01292394797007243</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1698</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1698</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1698</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01482273737589518</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1494</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1494</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1494</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01490089893341064</v>
+        <v>1038</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8, 13, 5, 11, 4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 5 -&gt; 8 -&gt; 13 -&gt; 11 -&gt; 4 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01474094390869141</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,30 +429,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>Distancia</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Distancia</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ativos</t>
+          <t>min</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>melhor rota</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>caminho</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -463,86 +453,169 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1057</v>
       </c>
       <c r="C2" t="n">
-        <v>1053</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9, 3, 1, 6, 11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 11 -&gt; 1 -&gt; 3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.01195716857910156</v>
+        <v>1057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.008758282661437989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1040</v>
       </c>
       <c r="C3" t="n">
-        <v>867</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2, 1, 6, 7, 3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6 -&gt; 6 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01217770576477051</v>
+        <v>1040</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.008761763572692871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>973</v>
       </c>
       <c r="C4" t="n">
-        <v>1038</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8, 13, 5, 11, 4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2 -&gt; 5 -&gt; 8 -&gt; 13 -&gt; 11 -&gt; 4 -&gt; 2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01474094390869141</v>
+        <v>973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>973</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01014242966969808</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01018432776133219</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>883</v>
+      </c>
+      <c r="C6" t="n">
+        <v>883</v>
+      </c>
+      <c r="D6" t="n">
+        <v>883</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01228616237640381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01369312604268392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01368667284647624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>957</v>
+      </c>
+      <c r="C9" t="n">
+        <v>957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>957</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01189967791239421</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>886</v>
+      </c>
+      <c r="C10" t="n">
+        <v>886</v>
+      </c>
+      <c r="D10" t="n">
+        <v>886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01372597217559814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01384061177571615</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Índice</t>
+          <t>Qtd_Nós</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -450,172 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1057</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D2" t="n">
-        <v>1057</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.008758282661437989</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1040</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008761763572692871</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>973</v>
-      </c>
-      <c r="C4" t="n">
-        <v>973</v>
-      </c>
-      <c r="D4" t="n">
-        <v>973</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01014242966969808</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1224</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1224</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1224</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01018432776133219</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>883</v>
-      </c>
-      <c r="C6" t="n">
-        <v>883</v>
-      </c>
-      <c r="D6" t="n">
-        <v>883</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01228616237640381</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1040</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01369312604268392</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1053</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1053</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01368667284647624</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>957</v>
-      </c>
-      <c r="C9" t="n">
-        <v>957</v>
-      </c>
-      <c r="D9" t="n">
-        <v>957</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01189967791239421</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>886</v>
-      </c>
-      <c r="C10" t="n">
-        <v>886</v>
-      </c>
-      <c r="D10" t="n">
-        <v>886</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01372597217559814</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1049</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1049</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01384061177571615</v>
+        <v>0.009816408157348633</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
@@ -454,7 +454,7 @@
         <v>1053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009816408157348633</v>
+        <v>0.0105130672454834</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_13_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01029562950134277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01057639122009277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>973</v>
+      </c>
+      <c r="C4" t="n">
+        <v>973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>973</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01228516896565755</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01205418109893799</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>883</v>
+      </c>
+      <c r="C6" t="n">
+        <v>883</v>
+      </c>
+      <c r="D6" t="n">
+        <v>883</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01211105982462565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01241656939188639</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>1053</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0105130672454834</v>
+      <c r="C8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01220947901407878</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>957</v>
+      </c>
+      <c r="C9" t="n">
+        <v>957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>957</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01029446919759115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>886</v>
+      </c>
+      <c r="C10" t="n">
+        <v>886</v>
+      </c>
+      <c r="D10" t="n">
+        <v>886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01220994790395101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0117668628692627</v>
       </c>
     </row>
   </sheetData>
